--- a/study01/report/motivation/scr-signedup-participants/interest-enjoyment/by-Type/ParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/interest-enjoyment/by-Type/ParametricAnalysis.xlsx
@@ -8847,13 +8847,13 @@
         <v>1.396776703766676</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>3.0484254201178427</v>
+        <v>3.048425420117838</v>
       </c>
       <c r="F6" t="n" s="35">
         <v>0.05162585451566058</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.08629955172662047</v>
+        <v>0.08629955172662072</v>
       </c>
     </row>
     <row r="7">
@@ -8870,13 +8870,13 @@
         <v>1.396776703766676</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>0.07117589657987138</v>
+        <v>0.07117589657987569</v>
       </c>
       <c r="F7" t="n" s="35">
         <v>0.0012693847675168365</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.7906122928718113</v>
+        <v>0.790612292871805</v>
       </c>
     </row>
     <row r="8">
@@ -8893,13 +8893,13 @@
         <v>1.396776703766676</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>1.4946536610471006</v>
+        <v>1.4946536610471028</v>
       </c>
       <c r="F8" t="n" s="35">
         <v>0.025996393853568642</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.2266163984593219</v>
+        <v>0.22661639845932163</v>
       </c>
     </row>
     <row r="9">
@@ -8943,7 +8943,7 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="57">
-        <v>950.6327579012669</v>
+        <v>950.6327579012668</v>
       </c>
       <c r="E13" t="n" s="58">
         <v>8.068105240415797E-37</v>
@@ -8960,10 +8960,10 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>3.0484254201178427</v>
+        <v>3.048425420117838</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.08629955172662047</v>
+        <v>0.08629955172662072</v>
       </c>
     </row>
     <row r="15">
@@ -8977,10 +8977,10 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>0.07117589657987138</v>
+        <v>0.07117589657987569</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.7906122928718113</v>
+        <v>0.790612292871805</v>
       </c>
     </row>
     <row r="16">
@@ -8994,10 +8994,10 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>1.4946536610471006</v>
+        <v>1.4946536610471028</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.2266163984593219</v>
+        <v>0.22661639845932163</v>
       </c>
     </row>
     <row r="17">
